--- a/回测记录/V4/5日线下阳线，近60日涨停数前5.xlsx
+++ b/回测记录/V4/5日线下阳线，近60日涨停数前5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28160" windowHeight="16580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -504,6 +504,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +805,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,46 +1057,46 @@
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="16">
         <v>42738</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="16">
         <v>43098</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="17">
         <v>244</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="17">
         <v>614</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="17">
         <v>2</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="17">
         <v>417</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="17">
         <v>197</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="18">
         <v>0.67915000000000003</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="18">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="18">
         <v>-3.6249999999999998E-2</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="19">
         <v>8.6E-3</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="18">
         <v>1.044E-2</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="17">
         <v>5.4657952274400001</v>
       </c>
     </row>
@@ -1089,46 +1104,46 @@
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="16">
         <v>43102</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="16">
         <v>43462</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="17">
         <v>243</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="17">
         <v>630</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="17">
         <v>2</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="17">
         <v>425</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="17">
         <v>205</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="18">
         <v>0.67459999999999998</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="18">
         <v>3.8870000000000002E-2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="18">
         <v>-4.1849999999999998E-2</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="19">
         <v>1.004E-2</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="18">
         <v>1.26E-2</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="17">
         <v>7.0541456798900004</v>
       </c>
     </row>
